--- a/TIMES-DE/SuppXLS/Scen_IND_MIDROAD_Maxshare_constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_IND_MIDROAD_Maxshare_constraint.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="47">
   <si>
     <t>UC - All Regions/Each Period</t>
   </si>
@@ -151,13 +151,19 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>DE1</t>
+  </si>
+  <si>
+    <t>UC_T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +195,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +228,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -225,11 +243,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -238,10 +257,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="1"/>
+    <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -540,35 +561,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:AD57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="I4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -609,8 +633,51 @@
       <c r="O5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="2"/>
+      <c r="AD5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>"UC_IND_ELC_"&amp;M6</f>
         <v>UC_IND_ELC_Iron&amp;Steel</v>
@@ -647,8 +714,47 @@
       <c r="O6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" t="str">
+        <f>"UC_IND_ELC_"&amp;AB6</f>
+        <v>UC_IND_ELC_Iron&amp;Steel</v>
+      </c>
+      <c r="R6" t="str">
+        <f>"IND"&amp;AD6&amp;"DPH*"</f>
+        <v>INDSDPH*</v>
+      </c>
+      <c r="S6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" t="str">
+        <f>"I"&amp;AD6&amp;"DPH"</f>
+        <v>ISDPH</v>
+      </c>
+      <c r="V6">
+        <v>2020</v>
+      </c>
+      <c r="W6" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>0.1</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D7" t="str">
         <f>"IND"&amp;O6&amp;"DPH*"</f>
         <v>INDSDPH*</v>
@@ -669,8 +775,31 @@
       <c r="J7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7" t="str">
+        <f>R6</f>
+        <v>INDSDPH*</v>
+      </c>
+      <c r="S7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" t="str">
+        <f>U6</f>
+        <v>ISDPH</v>
+      </c>
+      <c r="V7">
+        <v>2060</v>
+      </c>
+      <c r="W7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D8" t="str">
         <f>"IND"&amp;O8&amp;"DPH*"</f>
         <v>INDSDPH*</v>
@@ -705,8 +834,47 @@
         <f>O6</f>
         <v>S</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" t="str">
+        <f>"UC_IND_ELC_"&amp;AB8</f>
+        <v>UC_IND_ELC_Chemical</v>
+      </c>
+      <c r="R8" t="str">
+        <f>"IND"&amp;AD8&amp;"DPH*"</f>
+        <v>INDCDPH*</v>
+      </c>
+      <c r="S8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" t="str">
+        <f>"I"&amp;AD8&amp;"DPH"</f>
+        <v>ICDPH</v>
+      </c>
+      <c r="V8">
+        <v>2020</v>
+      </c>
+      <c r="W8" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0.16</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
         <f>"IND"&amp;O8&amp;"DPH*"</f>
         <v>INDSDPH*</v>
@@ -727,8 +895,31 @@
       <c r="J9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R9" t="str">
+        <f>R8</f>
+        <v>INDCDPH*</v>
+      </c>
+      <c r="S9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" t="str">
+        <f>U8</f>
+        <v>ICDPH</v>
+      </c>
+      <c r="V9">
+        <v>2060</v>
+      </c>
+      <c r="W9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>"UC_IND_ELC_"&amp;M10</f>
         <v>UC_IND_ELC_Chemical</v>
@@ -765,8 +956,47 @@
       <c r="O10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" t="str">
+        <f>"UC_IND_ELC_"&amp;AB10</f>
+        <v>UC_IND_ELC_Aluminium</v>
+      </c>
+      <c r="R10" t="str">
+        <f>"IND"&amp;AD10&amp;"DPH*"</f>
+        <v>INDADPH*</v>
+      </c>
+      <c r="S10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" t="str">
+        <f>"I"&amp;AD10&amp;"DPH"</f>
+        <v>IADPH</v>
+      </c>
+      <c r="V10">
+        <v>2020</v>
+      </c>
+      <c r="W10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0.5</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f>"IND"&amp;O10&amp;"DPH*"</f>
         <v>INDCDPH*</v>
@@ -787,8 +1017,31 @@
       <c r="J11">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R11" t="str">
+        <f>R10</f>
+        <v>INDADPH*</v>
+      </c>
+      <c r="S11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" t="str">
+        <f>U10</f>
+        <v>IADPH</v>
+      </c>
+      <c r="V11">
+        <v>2060</v>
+      </c>
+      <c r="W11" t="s">
+        <v>28</v>
+      </c>
+      <c r="X11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f>"IND"&amp;O12&amp;"DPH*"</f>
         <v>INDCDPH*</v>
@@ -823,8 +1076,47 @@
         <f>O10</f>
         <v>C</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" t="str">
+        <f>"UC_IND_ELC_"&amp;AB12</f>
+        <v>UC_IND_ELC_Glass&amp;Concrete</v>
+      </c>
+      <c r="R12" t="str">
+        <f>"IND"&amp;AD12&amp;"DPH*"</f>
+        <v>INDGDPH*</v>
+      </c>
+      <c r="S12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" t="str">
+        <f>"I"&amp;AD12&amp;"DPH"</f>
+        <v>IGDPH</v>
+      </c>
+      <c r="V12">
+        <v>2020</v>
+      </c>
+      <c r="W12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0.16</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f>"IND"&amp;O12&amp;"DPH*"</f>
         <v>INDCDPH*</v>
@@ -845,8 +1137,31 @@
       <c r="J13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R13" t="str">
+        <f>R12</f>
+        <v>INDGDPH*</v>
+      </c>
+      <c r="S13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" t="str">
+        <f>U12</f>
+        <v>IGDPH</v>
+      </c>
+      <c r="V13">
+        <v>2060</v>
+      </c>
+      <c r="W13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>"UC_IND_ELC_"&amp;M14</f>
         <v>UC_IND_ELC_Aluminium</v>
@@ -883,8 +1198,47 @@
       <c r="O14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" t="str">
+        <f>"UC_IND_ELC_"&amp;AB14</f>
+        <v>UC_IND_ELC_Transport</v>
+      </c>
+      <c r="R14" t="str">
+        <f>"IND"&amp;AD14&amp;"DPH*"</f>
+        <v>INDTDPH*</v>
+      </c>
+      <c r="S14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" t="str">
+        <f>"I"&amp;AD14&amp;"DPH"</f>
+        <v>ITDPH</v>
+      </c>
+      <c r="V14">
+        <v>2020</v>
+      </c>
+      <c r="W14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>0.16</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f>"IND"&amp;O14&amp;"DPH*"</f>
         <v>INDADPH*</v>
@@ -905,8 +1259,31 @@
       <c r="J15">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R15" t="str">
+        <f>R14</f>
+        <v>INDTDPH*</v>
+      </c>
+      <c r="S15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" t="str">
+        <f>U14</f>
+        <v>ITDPH</v>
+      </c>
+      <c r="V15">
+        <v>2060</v>
+      </c>
+      <c r="W15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f>"IND"&amp;O16&amp;"DPH*"</f>
         <v>INDADPH*</v>
@@ -941,8 +1318,47 @@
         <f>O14</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P16" t="str">
+        <f>"UC_IND_ELC_"&amp;AB16</f>
+        <v>UC_IND_ELC_Machinery</v>
+      </c>
+      <c r="R16" t="str">
+        <f>"IND"&amp;AD16&amp;"DPH*"</f>
+        <v>INDMDPH*</v>
+      </c>
+      <c r="S16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16" t="str">
+        <f>"I"&amp;AD16&amp;"DPH"</f>
+        <v>IMDPH</v>
+      </c>
+      <c r="V16">
+        <v>2020</v>
+      </c>
+      <c r="W16" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>0.16</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f>"IND"&amp;O16&amp;"DPH*"</f>
         <v>INDADPH*</v>
@@ -963,8 +1379,31 @@
       <c r="J17">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R17" t="str">
+        <f>R16</f>
+        <v>INDMDPH*</v>
+      </c>
+      <c r="S17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" t="str">
+        <f>U16</f>
+        <v>IMDPH</v>
+      </c>
+      <c r="V17">
+        <v>2060</v>
+      </c>
+      <c r="W17" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>"UC_IND_ELC_"&amp;M18</f>
         <v>UC_IND_ELC_Glass&amp;Concrete</v>
@@ -1001,8 +1440,47 @@
       <c r="O18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P18" t="str">
+        <f>"UC_IND_ELC_"&amp;AB18</f>
+        <v>UC_IND_ELC_Mining</v>
+      </c>
+      <c r="R18" t="str">
+        <f>"IND"&amp;AD18&amp;"DPH*"</f>
+        <v>INDIDPH*</v>
+      </c>
+      <c r="S18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" t="str">
+        <f>"I"&amp;AD18&amp;"DPH"</f>
+        <v>IIDPH</v>
+      </c>
+      <c r="V18">
+        <v>2020</v>
+      </c>
+      <c r="W18" t="s">
+        <v>28</v>
+      </c>
+      <c r="X18" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>0.16</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f>"IND"&amp;O18&amp;"DPH*"</f>
         <v>INDGDPH*</v>
@@ -1023,8 +1501,31 @@
       <c r="J19">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R19" t="str">
+        <f>R18</f>
+        <v>INDIDPH*</v>
+      </c>
+      <c r="S19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" t="str">
+        <f>U18</f>
+        <v>IIDPH</v>
+      </c>
+      <c r="V19">
+        <v>2060</v>
+      </c>
+      <c r="W19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X19" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f>"IND"&amp;O20&amp;"DPH*"</f>
         <v>INDGDPH*</v>
@@ -1059,8 +1560,47 @@
         <f>O18</f>
         <v>G</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P20" t="str">
+        <f>"UC_IND_ELC_"&amp;AB20</f>
+        <v>UC_IND_ELC_Food</v>
+      </c>
+      <c r="R20" t="str">
+        <f>"IND"&amp;AD20&amp;"DPH*"</f>
+        <v>INDFDPH*</v>
+      </c>
+      <c r="S20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" t="str">
+        <f>"I"&amp;AD20&amp;"DPH"</f>
+        <v>IFDPH</v>
+      </c>
+      <c r="V20">
+        <v>2020</v>
+      </c>
+      <c r="W20" t="s">
+        <v>28</v>
+      </c>
+      <c r="X20" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>0.16</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>15</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f>"IND"&amp;O20&amp;"DPH*"</f>
         <v>INDGDPH*</v>
@@ -1081,8 +1621,31 @@
       <c r="J21">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R21" t="str">
+        <f>R20</f>
+        <v>INDFDPH*</v>
+      </c>
+      <c r="S21" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" t="str">
+        <f>U20</f>
+        <v>IFDPH</v>
+      </c>
+      <c r="V21">
+        <v>2060</v>
+      </c>
+      <c r="W21" t="s">
+        <v>28</v>
+      </c>
+      <c r="X21" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>"UC_IND_ELC_"&amp;M22</f>
         <v>UC_IND_ELC_Transport</v>
@@ -1119,8 +1682,47 @@
       <c r="O22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P22" t="str">
+        <f>"UC_IND_ELC_"&amp;AB22</f>
+        <v>UC_IND_ELC_Paper&amp;Pulp</v>
+      </c>
+      <c r="R22" t="str">
+        <f>"IND"&amp;AD22&amp;"DPH*"</f>
+        <v>INDRDPH*</v>
+      </c>
+      <c r="S22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" t="str">
+        <f>"I"&amp;AD22&amp;"DPH"</f>
+        <v>IRDPH</v>
+      </c>
+      <c r="V22">
+        <v>2020</v>
+      </c>
+      <c r="W22" t="s">
+        <v>28</v>
+      </c>
+      <c r="X22" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0.16</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>15</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f>"IND"&amp;O22&amp;"DPH*"</f>
         <v>INDTDPH*</v>
@@ -1141,8 +1743,31 @@
       <c r="J23">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R23" t="str">
+        <f>R22</f>
+        <v>INDRDPH*</v>
+      </c>
+      <c r="S23" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" t="str">
+        <f>U22</f>
+        <v>IRDPH</v>
+      </c>
+      <c r="V23">
+        <v>2060</v>
+      </c>
+      <c r="W23" t="s">
+        <v>28</v>
+      </c>
+      <c r="X23" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f>"IND"&amp;O24&amp;"DPH*"</f>
         <v>INDTDPH*</v>
@@ -1177,8 +1802,47 @@
         <f>O22</f>
         <v>T</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P24" t="str">
+        <f>"UC_IND_ELC_"&amp;AB24</f>
+        <v>UC_IND_ELC_Wood</v>
+      </c>
+      <c r="R24" t="str">
+        <f>"IND"&amp;AD24&amp;"DPH*"</f>
+        <v>INDWDPH*</v>
+      </c>
+      <c r="S24" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" t="str">
+        <f>"I"&amp;AD24&amp;"DPH"</f>
+        <v>IWDPH</v>
+      </c>
+      <c r="V24">
+        <v>2020</v>
+      </c>
+      <c r="W24" t="s">
+        <v>28</v>
+      </c>
+      <c r="X24" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>0.16</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>15</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f>"IND"&amp;O24&amp;"DPH*"</f>
         <v>INDTDPH*</v>
@@ -1199,8 +1863,31 @@
       <c r="J25">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R25" t="str">
+        <f>R24</f>
+        <v>INDWDPH*</v>
+      </c>
+      <c r="S25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U25" t="str">
+        <f>U24</f>
+        <v>IWDPH</v>
+      </c>
+      <c r="V25">
+        <v>2060</v>
+      </c>
+      <c r="W25" t="s">
+        <v>28</v>
+      </c>
+      <c r="X25" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>"UC_IND_ELC_"&amp;M26</f>
         <v>UC_IND_ELC_Machinery</v>
@@ -1237,8 +1924,47 @@
       <c r="O26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P26" t="str">
+        <f>"UC_IND_ELC_"&amp;AB26</f>
+        <v>UC_IND_ELC_Textile</v>
+      </c>
+      <c r="R26" t="str">
+        <f>"IND"&amp;AD26&amp;"DPH*"</f>
+        <v>INDLDPH*</v>
+      </c>
+      <c r="S26" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26" t="str">
+        <f>"I"&amp;AD26&amp;"DPH"</f>
+        <v>ILDPH</v>
+      </c>
+      <c r="V26">
+        <v>2020</v>
+      </c>
+      <c r="W26" t="s">
+        <v>28</v>
+      </c>
+      <c r="X26" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>0.13</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>15</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f>"IND"&amp;O26&amp;"DPH*"</f>
         <v>INDMDPH*</v>
@@ -1259,8 +1985,31 @@
       <c r="J27">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R27" t="str">
+        <f>R26</f>
+        <v>INDLDPH*</v>
+      </c>
+      <c r="S27" t="s">
+        <v>19</v>
+      </c>
+      <c r="U27" t="str">
+        <f>U26</f>
+        <v>ILDPH</v>
+      </c>
+      <c r="V27">
+        <v>2060</v>
+      </c>
+      <c r="W27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X27" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f>"IND"&amp;O28&amp;"DPH*"</f>
         <v>INDMDPH*</v>
@@ -1295,8 +2044,47 @@
         <f>O26</f>
         <v>M</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P28" t="str">
+        <f>"UC_IND_ELC_"&amp;AB28</f>
+        <v>UC_IND_ELC_Construction</v>
+      </c>
+      <c r="R28" t="str">
+        <f>"IND"&amp;AD28&amp;"DPH*"</f>
+        <v>INDNDPH*</v>
+      </c>
+      <c r="S28" t="s">
+        <v>19</v>
+      </c>
+      <c r="U28" t="str">
+        <f>"I"&amp;AD28&amp;"DPH"</f>
+        <v>INDPH</v>
+      </c>
+      <c r="V28">
+        <v>2020</v>
+      </c>
+      <c r="W28" t="s">
+        <v>28</v>
+      </c>
+      <c r="X28" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>0.16</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>15</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f>"IND"&amp;O28&amp;"DPH*"</f>
         <v>INDMDPH*</v>
@@ -1317,8 +2105,31 @@
       <c r="J29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R29" t="str">
+        <f>R28</f>
+        <v>INDNDPH*</v>
+      </c>
+      <c r="S29" t="s">
+        <v>19</v>
+      </c>
+      <c r="U29" t="str">
+        <f>U28</f>
+        <v>INDPH</v>
+      </c>
+      <c r="V29">
+        <v>2060</v>
+      </c>
+      <c r="W29" t="s">
+        <v>28</v>
+      </c>
+      <c r="X29" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f>"UC_IND_ELC_"&amp;M30</f>
         <v>UC_IND_ELC_Mining</v>
@@ -1355,8 +2166,47 @@
       <c r="O30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P30" t="str">
+        <f>"UC_IND_ELC_"&amp;AB30</f>
+        <v>UC_IND_ELC_Other</v>
+      </c>
+      <c r="R30" t="str">
+        <f>"IND"&amp;AD30&amp;"DPH*"</f>
+        <v>INDODPH*</v>
+      </c>
+      <c r="S30" t="s">
+        <v>19</v>
+      </c>
+      <c r="U30" t="str">
+        <f>"I"&amp;AD30&amp;"DPH"</f>
+        <v>IODPH</v>
+      </c>
+      <c r="V30">
+        <v>2020</v>
+      </c>
+      <c r="W30" t="s">
+        <v>28</v>
+      </c>
+      <c r="X30" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>0.15</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>15</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D31" t="str">
         <f>"IND"&amp;O30&amp;"DPH*"</f>
         <v>INDIDPH*</v>
@@ -1377,8 +2227,31 @@
       <c r="J31">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R31" t="str">
+        <f>R30</f>
+        <v>INDODPH*</v>
+      </c>
+      <c r="S31" t="s">
+        <v>19</v>
+      </c>
+      <c r="U31" t="str">
+        <f>U30</f>
+        <v>IODPH</v>
+      </c>
+      <c r="V31">
+        <v>2060</v>
+      </c>
+      <c r="W31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X31" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D32" t="str">
         <f>"IND"&amp;O32&amp;"DPH*"</f>
         <v>INDIDPH*</v>

--- a/TIMES-DE/SuppXLS/Scen_IND_MIDROAD_Maxshare_constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_IND_MIDROAD_Maxshare_constraint.xlsx
@@ -138,9 +138,6 @@
     <t>UC_FLO~2020</t>
   </si>
   <si>
-    <t>UC_FLO~2060</t>
-  </si>
-  <si>
     <t>UC_RHSRTS~UP~2020</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>IND*</t>
+  </si>
+  <si>
+    <t>UC_FLO~2050</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,13 +596,13 @@
         <v>39</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>10</v>
@@ -625,7 +625,7 @@
         <v>INDSDPH*</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="str">
         <f>G6</f>
@@ -696,7 +696,7 @@
         <v>INDCDPH*</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -767,7 +767,7 @@
         <v>INDADPH*</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -838,7 +838,7 @@
         <v>INDGDPH*</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -909,7 +909,7 @@
         <v>INDTDPH*</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -980,7 +980,7 @@
         <v>INDMDPH*</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -1051,7 +1051,7 @@
         <v>INDIDPH*</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -1122,7 +1122,7 @@
         <v>INDFDPH*</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -1193,7 +1193,7 @@
         <v>INDRDPH*</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -1264,7 +1264,7 @@
         <v>INDWDPH*</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -1335,7 +1335,7 @@
         <v>INDLDPH*</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -1406,7 +1406,7 @@
         <v>INDNDPH*</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -1477,7 +1477,7 @@
         <v>INDODPH*</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
